--- a/files/input_sheet.xlsx
+++ b/files/input_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikky\Documents\Lavoro\Vulcanos_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BC8380-F730-45B6-BEA0-1E649D0C77BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34736EBB-C8B0-463F-BD70-B37C4271039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{918B6616-59B6-4518-A300-DA2335E950C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Index</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes </t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/files/input_sheet.xlsx
+++ b/files/input_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikky\Documents\Lavoro\Vulcanos_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34736EBB-C8B0-463F-BD70-B37C4271039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C76A1-85A9-479C-B7AA-2D5CF7BBE103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{918B6616-59B6-4518-A300-DA2335E950C8}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{918B6616-59B6-4518-A300-DA2335E950C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -158,7 +158,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -475,20 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B197A6-E24D-4D14-9E1D-628D7DDD2A1D}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="11.88671875" style="6" customWidth="1"/>
-    <col min="5" max="18" width="8.88671875" style="6"/>
+    <col min="1" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="11.88671875" style="5" customWidth="1"/>
+    <col min="5" max="16" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,195 +500,186 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/input_sheet.xlsx
+++ b/files/input_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikky\Documents\Lavoro\Vulcanos_site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikky\PycharmProjects\Vulcani_Bindi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C76A1-85A9-479C-B7AA-2D5CF7BBE103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E946FB-9903-4040-8088-ABEA7A8AD6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{918B6616-59B6-4518-A300-DA2335E950C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{918B6616-59B6-4518-A300-DA2335E950C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>tot</t>
   </si>
   <si>
-    <t xml:space="preserve">notes </t>
+    <t>notes.1</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
